--- a/translation/xlsx/_tsum_tips_008.xlsx
+++ b/translation/xlsx/_tsum_tips_008.xlsx
@@ -432,7 +432,7 @@
     <t>Her delusion about the maggots dwelling in her blood is a perfect example, and it's also the cause of her psychosomatic self-mutilating behavior.</t>
   </si>
   <si>
-    <t>혈액 안에 벌레가 있다' 는 망상으로 자해 행위를 계속하는 환자의 양상은, 확실히 조현병의 증상에 해당합니다.</t>
+    <t xml:space="preserve"> '혈액 안에 벌레가 있다' 는 망상으로 자해 행위를 계속하는 환자의 양상은, 확실히 조현병의 증상에 해당합니다.</t>
   </si>
   <si>
     <t>환자의 자해 행위의 이유라고 하는, 피 속에 벌레가 숨어 있다고 하는 망상은, 확실히 그 으뜸이라고 말할 수 있겠지요.</t>
@@ -1896,7 +1896,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C28" s="5" t="s">
